--- a/pred_ohlcv/54_21/2020-01-24 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 DAD ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>145396.709880731</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>146626.178196945</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>144267.834225077</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>144267.834225077</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -860,7 +860,7 @@
         <v>134996.528025077</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>135816.025618659</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>135849.5663186591</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>129916.950418659</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>124481.7193093791</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>125729.8259093791</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>125420.1461093791</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>125424.5852093791</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>125424.5852093791</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>123442.1419093791</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>123965.8469093791</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>123948.0839093791</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>123635.0617093791</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>123639.0617093791</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>121857.4381093791</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>122640.7293093791</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>118095.3960093791</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>118095.3960093791</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>118096.5960093791</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>111301.1508093791</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>111351.1508093791</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>111351.1508093791</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>111458.2738093791</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>110403.6290093791</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>110403.6290093791</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>110403.6290093791</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>89579.38850937906</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>93467.55060937906</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>98508.27180937906</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>98508.27180937906</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>98685.11960937906</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>98685.11960937906</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>98142.03970937907</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>99462.86970937907</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>101567.5855093791</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>101524.5578093791</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>101347.0926093791</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>101347.0926093791</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>101259.6627093791</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>101167.2620093791</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>101122.5471093791</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>96227.40470937906</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>95978.86040937906</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>94420.41650937907</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>94588.80540937907</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>90682.19190937906</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>90685.19190937906</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>98629.70150937907</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>98629.70150937907</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>82908.15950937907</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>83473.40860937907</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>81417.00260937907</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>81417.00260937907</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>80348.92420937907</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>80348.92420937907</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>72167.11640937907</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>85030.10410937907</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>84972.97410937907</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>84915.84410937906</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>65420.42080937906</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>68672.09560937906</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>59749.59670937906</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>59700.48790937906</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>62831.58810937906</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>46304.70930937906</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>43129.66700937906</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>43215.56700937906</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>42455.29650937906</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>7396.428309379036</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 DAD ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>126405.860280731</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>146983.228880731</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>146983.228880731</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>145062.334280731</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>145917.877680731</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>145396.709880731</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>146626.178196945</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>144235.471325077</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>144267.834225077</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>144267.834225077</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -860,7 +860,7 @@
         <v>134996.528025077</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>135816.025618659</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>135816.025618659</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>129916.950418659</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>124481.7193093791</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>125729.8259093791</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>125420.1461093791</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>125424.5852093791</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>125424.5852093791</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>123442.1419093791</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>123965.8469093791</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>123948.0839093791</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>123635.0617093791</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>123639.0617093791</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>121857.4381093791</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>122640.7293093791</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>118095.3960093791</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>118095.3960093791</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>118096.5960093791</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>111301.1508093791</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>111351.1508093791</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>111351.1508093791</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>111458.2738093791</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>110403.6290093791</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>110403.6290093791</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>110403.6290093791</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>89579.38850937906</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>93467.55060937906</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>98508.27180937906</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>98508.27180937906</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>98685.11960937906</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>98685.11960937906</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>98142.03970937907</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>99462.86970937907</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>101567.5855093791</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>101524.5578093791</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>101347.0926093791</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>101347.0926093791</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>101259.6627093791</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>101167.2620093791</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>101122.5471093791</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>96227.40470937906</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>95978.86040937906</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>94420.41650937907</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>94588.80540937907</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>90682.19190937906</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>90685.19190937906</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>98629.70150937907</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>98629.70150937907</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>82908.15950937907</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>83473.40860937907</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>81417.00260937907</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>81417.00260937907</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>80348.92420937907</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>80348.92420937907</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>72167.11640937907</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>85030.10410937907</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>84972.97410937907</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>84915.84410937906</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>65420.42080937906</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>68672.09560937906</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>59749.59670937906</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>59700.48790937906</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>62831.58810937906</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>46304.70930937906</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>43129.66700937906</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>43215.56700937906</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>42455.29650937906</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>8176.135809379037</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>7396.428309379036</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>7396.428309379036</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>9039.898009379036</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>5681.471109379037</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>17694.50707681804</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
